--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtPartSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtPartSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户通过手机号登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,10 @@
   </si>
   <si>
     <t>targetFpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债转部分成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -471,19 +471,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtPartSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtPartSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,19 +63,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>targetFpid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>债转部分成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_fpId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetFpId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtUtils.getFpId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -477,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
